--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>285739.8652609565</v>
+        <v>283038.6486094997</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673426</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>25.67913628361561</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>237.9688518868389</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>124.0182950532142</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -747,16 +747,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150561</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -792,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>225.9233463415689</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888211</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>65.77030295285051</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>189.7661008211944</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>186.7103648106725</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.41899097776993</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.30025118863712</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4722490968155</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>8.312012538737552</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,10 +987,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8005767399402</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333228</v>
+        <v>97.33388804333231</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1029,19 +1029,19 @@
         <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>158.7608692779821</v>
       </c>
       <c r="V6" t="n">
-        <v>180.5298124654312</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6974299383169</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083602</v>
+        <v>85.8253810852511</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315184</v>
+        <v>119.1307056315185</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059547</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>118.3039544482965</v>
+        <v>222.4186055422209</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,16 +1136,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>35.95245435214135</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -1184,19 +1184,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>185.4109568602962</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>8.90616225919158</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -1348,16 +1348,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>6.235721298858311</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>36.01372546527205</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>315.3998342615266</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>289.9775033393747</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184546</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615206</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>201.9388203544491</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812551</v>
+        <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530791</v>
+        <v>10.48847705530785</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905234</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920368</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
@@ -1585,16 +1585,16 @@
         <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>78.33306748119645</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>30.05706037504557</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428081</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>108.5163679066134</v>
+        <v>252.1376433238286</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503971</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,7 +2011,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>55.52079624060374</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>77.39507264402583</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833839</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>127.5379405516744</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>99.97427419833792</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2722,16 +2722,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>102.1557845699816</v>
       </c>
       <c r="G28" t="n">
-        <v>132.7328787290203</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833835</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833824</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.8299898147631</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,10 +3424,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>142.8873577254026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3563,10 +3563,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>4.019807611471797</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053461</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703273</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880065</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797035</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>294.4202677165019</v>
+        <v>294.4202677165021</v>
       </c>
       <c r="C2" t="n">
-        <v>294.4202677165019</v>
+        <v>294.4202677165021</v>
       </c>
       <c r="D2" t="n">
-        <v>294.4202677165019</v>
+        <v>294.4202677165021</v>
       </c>
       <c r="E2" t="n">
-        <v>294.4202677165019</v>
+        <v>294.4202677165021</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672984</v>
+        <v>287.4747669672986</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515912</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030611</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991323</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1028.916998507423</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>814.482942342551</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>560.7979242836798</v>
+        <v>801.1705019471538</v>
       </c>
       <c r="V2" t="n">
-        <v>560.7979242836798</v>
+        <v>801.1705019471538</v>
       </c>
       <c r="W2" t="n">
-        <v>560.7979242836798</v>
+        <v>801.1705019471538</v>
       </c>
       <c r="X2" t="n">
-        <v>560.7979242836798</v>
+        <v>534.7928453799757</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.7979242836798</v>
+        <v>294.4202677165021</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>449.8779753016586</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="C3" t="n">
-        <v>449.8779753016586</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="D3" t="n">
-        <v>449.8779753016586</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="E3" t="n">
-        <v>449.8779753016586</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="F3" t="n">
-        <v>303.3434173285435</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776108</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749989</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004806</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699347</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
         <v>338.8740072302313</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267551</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560897</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098642</v>
+        <v>887.8833378166548</v>
       </c>
       <c r="T3" t="n">
-        <v>906.2192216098642</v>
+        <v>887.8833378166548</v>
       </c>
       <c r="U3" t="n">
-        <v>678.0833756466777</v>
+        <v>887.8833378166548</v>
       </c>
       <c r="V3" t="n">
-        <v>449.8779753016586</v>
+        <v>652.7312295849122</v>
       </c>
       <c r="W3" t="n">
-        <v>449.8779753016586</v>
+        <v>398.4938728567105</v>
       </c>
       <c r="X3" t="n">
-        <v>449.8779753016586</v>
+        <v>398.4938728567105</v>
       </c>
       <c r="Y3" t="n">
-        <v>449.8779753016586</v>
+        <v>190.7335740917566</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159.7059716361717</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C4" t="n">
-        <v>159.7059716361717</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D4" t="n">
-        <v>159.7059716361717</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>159.7059716361717</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>159.7059716361717</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>159.7059716361717</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361717</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434485</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075546</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4513,25 +4513,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>988.4208705587013</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>762.9518343167156</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>496.5741777495375</v>
       </c>
       <c r="V4" t="n">
-        <v>800.1710318001377</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="W4" t="n">
-        <v>608.4881016777191</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X4" t="n">
-        <v>380.4985507797018</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y4" t="n">
-        <v>159.7059716361717</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>617.6240342461479</v>
+        <v>821.8262933957174</v>
       </c>
       <c r="C5" t="n">
-        <v>617.6240342461479</v>
+        <v>821.8262933957174</v>
       </c>
       <c r="D5" t="n">
-        <v>617.6240342461479</v>
+        <v>463.5605947889669</v>
       </c>
       <c r="E5" t="n">
-        <v>231.8357816479036</v>
+        <v>463.5605947889669</v>
       </c>
       <c r="F5" t="n">
-        <v>43.2394535563152</v>
+        <v>456.6150940397634</v>
       </c>
       <c r="G5" t="n">
-        <v>30.69501822523446</v>
+        <v>444.0706587086826</v>
       </c>
       <c r="H5" t="n">
-        <v>30.69501822523446</v>
+        <v>130.9983022541608</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523446</v>
+        <v>30.69501822523438</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275135</v>
+        <v>93.76641159275141</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245559</v>
+        <v>239.0325989245557</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825624</v>
+        <v>456.1499114825623</v>
       </c>
       <c r="M5" t="n">
-        <v>729.404193174885</v>
+        <v>729.4041931748842</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202378</v>
+        <v>1011.693823202377</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798412</v>
+        <v>1264.916654798409</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189409</v>
+        <v>1446.535482189405</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261723</v>
+        <v>1534.750911261719</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261723</v>
+        <v>1534.750911261719</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261723</v>
+        <v>1534.750911261719</v>
       </c>
       <c r="T5" t="n">
-        <v>1322.152679850798</v>
+        <v>1534.750911261719</v>
       </c>
       <c r="U5" t="n">
-        <v>1322.152679850798</v>
+        <v>1534.750911261719</v>
       </c>
       <c r="V5" t="n">
-        <v>991.0897925072278</v>
+        <v>1203.688023918148</v>
       </c>
       <c r="W5" t="n">
-        <v>991.0897925072278</v>
+        <v>1203.688023918148</v>
       </c>
       <c r="X5" t="n">
-        <v>617.6240342461479</v>
+        <v>830.2222656570684</v>
       </c>
       <c r="Y5" t="n">
-        <v>617.6240342461479</v>
+        <v>821.8262933957174</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>589.5718155345547</v>
+        <v>129.012076854863</v>
       </c>
       <c r="C6" t="n">
-        <v>415.1187862534277</v>
+        <v>129.012076854863</v>
       </c>
       <c r="D6" t="n">
-        <v>266.1843765921764</v>
+        <v>129.012076854863</v>
       </c>
       <c r="E6" t="n">
-        <v>266.1843765921764</v>
+        <v>129.012076854863</v>
       </c>
       <c r="F6" t="n">
-        <v>266.1843765921764</v>
+        <v>129.012076854863</v>
       </c>
       <c r="G6" t="n">
         <v>129.012076854863</v>
       </c>
       <c r="H6" t="n">
-        <v>30.69501822523446</v>
+        <v>30.69501822523438</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523446</v>
+        <v>30.69501822523438</v>
       </c>
       <c r="J6" t="n">
-        <v>174.2721860626389</v>
+        <v>49.44206107563387</v>
       </c>
       <c r="K6" t="n">
-        <v>284.4686930039493</v>
+        <v>388.9600665101409</v>
       </c>
       <c r="L6" t="n">
-        <v>478.9640368353012</v>
+        <v>583.4554103414923</v>
       </c>
       <c r="M6" t="n">
-        <v>725.2877975060469</v>
+        <v>829.7791710122375</v>
       </c>
       <c r="N6" t="n">
-        <v>992.5396600782692</v>
+        <v>1097.031033584459</v>
       </c>
       <c r="O6" t="n">
-        <v>1214.803107243788</v>
+        <v>1319.294480749977</v>
       </c>
       <c r="P6" t="n">
-        <v>1373.856052442476</v>
+        <v>1478.347425948665</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261723</v>
+        <v>1534.750911261719</v>
       </c>
       <c r="R6" t="n">
-        <v>1534.750911261723</v>
+        <v>1534.750911261719</v>
       </c>
       <c r="S6" t="n">
-        <v>1390.282497655818</v>
+        <v>1390.282497655814</v>
       </c>
       <c r="T6" t="n">
-        <v>1194.377855207502</v>
+        <v>1194.377855207498</v>
       </c>
       <c r="U6" t="n">
-        <v>1194.377855207502</v>
+        <v>1034.013340785294</v>
       </c>
       <c r="V6" t="n">
-        <v>1012.024509282824</v>
+        <v>798.8612325535514</v>
       </c>
       <c r="W6" t="n">
-        <v>757.7871525546227</v>
+        <v>544.6238758253497</v>
       </c>
       <c r="X6" t="n">
-        <v>757.7871525546227</v>
+        <v>336.7723756198169</v>
       </c>
       <c r="Y6" t="n">
-        <v>757.7871525546227</v>
+        <v>129.012076854863</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>501.4417305130016</v>
+        <v>117.3873223517506</v>
       </c>
       <c r="C7" t="n">
-        <v>501.4417305130016</v>
+        <v>117.3873223517506</v>
       </c>
       <c r="D7" t="n">
-        <v>351.3250911006659</v>
+        <v>117.3873223517506</v>
       </c>
       <c r="E7" t="n">
-        <v>351.3250911006659</v>
+        <v>117.3873223517506</v>
       </c>
       <c r="F7" t="n">
-        <v>351.3250911006659</v>
+        <v>117.3873223517506</v>
       </c>
       <c r="G7" t="n">
-        <v>182.9438487387296</v>
+        <v>117.3873223517506</v>
       </c>
       <c r="H7" t="n">
-        <v>30.69501822523446</v>
+        <v>30.69501822523438</v>
       </c>
       <c r="I7" t="n">
-        <v>30.69501822523446</v>
+        <v>30.69501822523438</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523446</v>
+        <v>30.69501822523438</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223266</v>
+        <v>157.4322756223264</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830388</v>
+        <v>375.1387655830382</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388152</v>
+        <v>615.0688576388142</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974824</v>
+        <v>854.728564797481</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891672</v>
+        <v>1060.07679889167</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934022</v>
+        <v>1212.26700593402</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495184</v>
+        <v>1234.200536495182</v>
       </c>
       <c r="R7" t="n">
-        <v>1113.866490402741</v>
+        <v>1113.866490402739</v>
       </c>
       <c r="S7" t="n">
-        <v>910.3578444371304</v>
+        <v>1113.866490402739</v>
       </c>
       <c r="T7" t="n">
-        <v>790.8589005499623</v>
+        <v>889.2012322792834</v>
       </c>
       <c r="U7" t="n">
-        <v>790.8589005499623</v>
+        <v>600.0613614556548</v>
       </c>
       <c r="V7" t="n">
-        <v>790.8589005499623</v>
+        <v>345.376873249768</v>
       </c>
       <c r="W7" t="n">
-        <v>501.4417305130016</v>
+        <v>345.376873249768</v>
       </c>
       <c r="X7" t="n">
-        <v>501.4417305130016</v>
+        <v>117.3873223517506</v>
       </c>
       <c r="Y7" t="n">
-        <v>501.4417305130016</v>
+        <v>117.3873223517506</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1606.635933406614</v>
+        <v>880.6454412161675</v>
       </c>
       <c r="C8" t="n">
-        <v>1606.635933406614</v>
+        <v>880.6454412161675</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>880.6454412161675</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
         <v>421.6795797345444</v>
@@ -4832,22 +4832,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190805</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2184.059060190805</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>1996.775265382425</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X8" t="n">
-        <v>1996.775265382425</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y8" t="n">
-        <v>1606.635933406614</v>
+        <v>880.6454412161675</v>
       </c>
     </row>
     <row r="9">
@@ -4884,19 +4884,19 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>600.6438724554071</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="C10" t="n">
-        <v>600.6438724554071</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="D10" t="n">
-        <v>600.6438724554071</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="E10" t="n">
-        <v>452.7307788730139</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269232</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1124.34930177307</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>1118.050593390385</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W10" t="n">
-        <v>828.6334233534244</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X10" t="n">
-        <v>600.6438724554071</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="Y10" t="n">
-        <v>600.6438724554071</v>
+        <v>60.24291006213602</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2309.06237243946</v>
+        <v>1872.090169197696</v>
       </c>
       <c r="C11" t="n">
-        <v>1940.099855499049</v>
+        <v>1553.504478024437</v>
       </c>
       <c r="D11" t="n">
-        <v>1581.834156892299</v>
+        <v>1195.238779417686</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.045904294054</v>
+        <v>809.4505268194421</v>
       </c>
       <c r="F11" t="n">
-        <v>785.0599995044468</v>
+        <v>809.4505268194421</v>
       </c>
       <c r="G11" t="n">
-        <v>370.4442349455922</v>
+        <v>394.8347622605876</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592071</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="J11" t="n">
         <v>304.406079670689</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656956</v>
+        <v>695.161540565696</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625329</v>
+        <v>1216.83000462533</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.95612308783</v>
+        <v>1828.956123087832</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484042</v>
+        <v>2455.600890484044</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535295</v>
+        <v>3033.988513535298</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479994</v>
+        <v>3493.127967479997</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.74982946406</v>
+        <v>3789.749829464063</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796036</v>
+        <v>3876.883295796039</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796036</v>
+        <v>3776.99935034538</v>
       </c>
       <c r="T11" t="n">
-        <v>3672.9046893774</v>
+        <v>3573.020743926745</v>
       </c>
       <c r="U11" t="n">
-        <v>3419.410747498929</v>
+        <v>3319.526802048273</v>
       </c>
       <c r="V11" t="n">
-        <v>3088.347860155358</v>
+        <v>2988.463914704702</v>
       </c>
       <c r="W11" t="n">
-        <v>2735.579204885244</v>
+        <v>2635.695259434588</v>
       </c>
       <c r="X11" t="n">
-        <v>2735.579204885244</v>
+        <v>2262.229501173508</v>
       </c>
       <c r="Y11" t="n">
-        <v>2345.439872909432</v>
+        <v>1872.090169197696</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.1320871839085</v>
+        <v>88.13208718390851</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870412</v>
+        <v>193.8410919870415</v>
       </c>
       <c r="K12" t="n">
-        <v>193.8410919870412</v>
+        <v>470.776996404666</v>
       </c>
       <c r="L12" t="n">
-        <v>612.5381326449929</v>
+        <v>889.4740370626179</v>
       </c>
       <c r="M12" t="n">
-        <v>1120.494698601521</v>
+        <v>996.4574081599335</v>
       </c>
       <c r="N12" t="n">
-        <v>1656.304008302731</v>
+        <v>1532.266717861144</v>
       </c>
       <c r="O12" t="n">
-        <v>2124.245052635254</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>856.3974185289014</v>
+        <v>374.5442528261668</v>
       </c>
       <c r="C13" t="n">
-        <v>687.4612356009945</v>
+        <v>374.5442528261668</v>
       </c>
       <c r="D13" t="n">
-        <v>537.3445961886588</v>
+        <v>224.4276134138311</v>
       </c>
       <c r="E13" t="n">
-        <v>389.4315026062657</v>
+        <v>224.4276134138311</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4315026062657</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="G13" t="n">
-        <v>221.9335194174539</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758648</v>
+        <v>136.855221875865</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648144</v>
+        <v>364.1690246648147</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344809</v>
+        <v>710.5788654344815</v>
       </c>
       <c r="M13" t="n">
         <v>1086.20859537694</v>
@@ -5212,37 +5212,37 @@
         <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818665</v>
+        <v>1786.049800818666</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010722</v>
+        <v>2042.940349010724</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742808</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742808</v>
+        <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>2137.362968742808</v>
+        <v>1868.627619458881</v>
       </c>
       <c r="T13" t="n">
-        <v>1916.471636177248</v>
+        <v>1647.736286893321</v>
       </c>
       <c r="U13" t="n">
-        <v>1627.379943126699</v>
+        <v>1358.644593842772</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.379943126699</v>
+        <v>1103.960105636885</v>
       </c>
       <c r="W13" t="n">
-        <v>1337.962773089738</v>
+        <v>814.5429355999245</v>
       </c>
       <c r="X13" t="n">
-        <v>1258.838462502671</v>
+        <v>586.5533847019071</v>
       </c>
       <c r="Y13" t="n">
-        <v>1038.045883359141</v>
+        <v>556.1927176564066</v>
       </c>
     </row>
     <row r="14">
@@ -5276,10 +5276,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5294,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>658.9255961109956</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C16" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D16" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,25 +5437,25 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1578.773361019743</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1289.356190982783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1061.366640084765</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y16" t="n">
-        <v>840.5740609412353</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="17">
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400716</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
         <v>93.81666304797187</v>
@@ -5683,40 +5683,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138414</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703113</v>
       </c>
     </row>
     <row r="20">
@@ -5741,37 +5741,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2497.745796000625</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>802.928827395874</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C22" t="n">
-        <v>633.9926444679671</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133955</v>
+        <v>194.8007783998289</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310024</v>
+        <v>194.8007783998289</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5908,13 +5908,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261137</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327647</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C25" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.4026036630045</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6263,10 +6263,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>768.5380889459584</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>599.6019060180515</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D28" t="n">
-        <v>599.6019060180515</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E28" t="n">
-        <v>451.6888124356584</v>
+        <v>197.0043242297715</v>
       </c>
       <c r="F28" t="n">
-        <v>451.6888124356584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.1865537761981</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6455,22 +6455,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6485,25 +6485,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,19 +6695,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356196</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
         <v>826.1405381797744</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1616.214256612756</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1388.224705714739</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="35">
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,22 +7017,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718132</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>552.3777707160738</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>383.4415877881669</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>383.4415877881669</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
         <v>826.1405381797742</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2235.586715463569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2015.98525048651</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1726.910023830708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1472.225535624821</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1182.808365587861</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>954.8188146898433</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>734.0262355463135</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7211,7 +7211,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591809</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876686</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597617</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7345,37 +7345,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533435</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925705</v>
+        <v>983.3403484614385</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179083</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075811</v>
@@ -7418,40 +7418,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>119.2902967703784</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400719</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C43" t="n">
-        <v>344.917417812165</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D43" t="n">
-        <v>344.917417812165</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E43" t="n">
-        <v>344.917417812165</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.917417812165</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797746</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138418</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703116</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7640,55 +7640,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797742</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166296</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761156</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069115</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>97.32166909127264</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438637014</v>
+        <v>34.43939438637042</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>231.6378772658556</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>105.5468419254471</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,10 +8544,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>211.0329012241562</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515151</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>-4.183517034292282e-13</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>346.7201161982085</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>49.87305750948093</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184557</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615212</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927374</v>
+        <v>90.25352389927372</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.8133067990524</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>147.3765879078407</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>188.5275929770492</v>
       </c>
     </row>
     <row r="14">
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>62.35543909865044</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>143.6212754172146</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>46.45968844823071</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>125.5054897610408</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>71.22040037418653</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>45.44677382459285</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>39.70888054695346</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459331</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294965</v>
       </c>
       <c r="G28" t="n">
-        <v>32.79125956324856</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.54986409393049</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>46.45968844823093</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,13 +25123,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.7546635373317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>38.13892827624204</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>144.5956654067406</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194152</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>65.54986409393081</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.2291039219411</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>960905.2330668878</v>
+        <v>960905.2330668881</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1057829.795107181</v>
+        <v>1057829.79510718</v>
       </c>
     </row>
     <row r="11">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>369468.7964389275</v>
+        <v>369468.7964389276</v>
       </c>
       <c r="C2" t="n">
         <v>369468.7964389275</v>
@@ -26320,16 +26320,16 @@
         <v>369468.7964389272</v>
       </c>
       <c r="E2" t="n">
-        <v>329665.1599234783</v>
+        <v>329665.1599234786</v>
       </c>
       <c r="F2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="G2" t="n">
         <v>363215.9698605027</v>
       </c>
       <c r="H2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605029</v>
       </c>
       <c r="I2" t="n">
         <v>363215.9698605028</v>
@@ -26338,19 +26338,19 @@
         <v>363215.9698605027</v>
       </c>
       <c r="K2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605029</v>
       </c>
       <c r="L2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="M2" t="n">
-        <v>363215.9698605029</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="N2" t="n">
         <v>363215.9698605028</v>
       </c>
       <c r="O2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605025</v>
       </c>
       <c r="P2" t="n">
         <v>363215.9698605028</v>
@@ -26363,43 +26363,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911928</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657069</v>
+        <v>132804.2190657053</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929378</v>
+        <v>265413.0723929391</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545773</v>
+        <v>313577.1573545781</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704291</v>
+        <v>189308.2687704282</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.1544191141</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417422</v>
+        <v>30877.42926417386</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049569</v>
+        <v>65018.345020496</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273075</v>
+        <v>81897.40371273094</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202366</v>
+        <v>49839.57413202347</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>248543.2666865468</v>
+        <v>248543.2666865467</v>
       </c>
       <c r="C4" t="n">
-        <v>212545.795951324</v>
+        <v>212545.7959513243</v>
       </c>
       <c r="D4" t="n">
         <v>136726.2736921025</v>
       </c>
       <c r="E4" t="n">
-        <v>9231.781797110052</v>
+        <v>9231.78179711005</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756581</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756581</v>
+        <v>9337.200356756593</v>
       </c>
       <c r="H4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756548</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756577</v>
+        <v>9337.200356756603</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756564</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756575</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.20035675661</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756563</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756573</v>
+        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667491</v>
+        <v>72593.65038667482</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738566</v>
+        <v>85137.48506738573</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-622210.2540430783</v>
+        <v>-622210.2540430785</v>
       </c>
       <c r="C6" t="n">
-        <v>-48474.86896477829</v>
+        <v>-48474.86896477689</v>
       </c>
       <c r="D6" t="n">
-        <v>-125608.3220859578</v>
+        <v>-125608.3220859591</v>
       </c>
       <c r="E6" t="n">
-        <v>-78281.26429559477</v>
+        <v>-78502.39560957009</v>
       </c>
       <c r="F6" t="n">
-        <v>63447.97090940991</v>
+        <v>63413.23298397506</v>
       </c>
       <c r="G6" t="n">
-        <v>252756.2396798392</v>
+        <v>252721.5017544033</v>
       </c>
       <c r="H6" t="n">
-        <v>252756.2396798389</v>
+        <v>252721.5017544035</v>
       </c>
       <c r="I6" t="n">
-        <v>252756.2396798391</v>
+        <v>252721.5017544033</v>
       </c>
       <c r="J6" t="n">
-        <v>183757.0852607249</v>
+        <v>183722.3473352891</v>
       </c>
       <c r="K6" t="n">
-        <v>221878.8104156649</v>
+        <v>221844.0724902296</v>
       </c>
       <c r="L6" t="n">
-        <v>187737.8946593434</v>
+        <v>187703.1567339073</v>
       </c>
       <c r="M6" t="n">
-        <v>170858.8359671084</v>
+        <v>170824.0980416724</v>
       </c>
       <c r="N6" t="n">
-        <v>202916.6655478154</v>
+        <v>202881.9276223799</v>
       </c>
       <c r="O6" t="n">
-        <v>252756.2396798391</v>
+        <v>252721.5017544031</v>
       </c>
       <c r="P6" t="n">
-        <v>252756.2396798391</v>
+        <v>252721.5017544033</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695746</v>
+        <v>717.3319511695735</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.24123721495</v>
+        <v>1202.241237214951</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154308</v>
+        <v>383.6877278154298</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490089</v>
+        <v>969.2208239490097</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26826,10 +26826,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000965</v>
+        <v>103.2769374000951</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479645</v>
+        <v>216.7329409479656</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974113</v>
+        <v>268.176345097412</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267236</v>
+        <v>165.7342631267227</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139246</v>
+        <v>119.9738478139235</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846081</v>
+        <v>256.8971042846091</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489701</v>
+        <v>328.6359918489709</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506394</v>
+        <v>203.4874641506386</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139249</v>
+        <v>119.9738478139235</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846078</v>
+        <v>256.8971042846091</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489701</v>
+        <v>328.6359918489709</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506394</v>
+        <v>203.4874641506386</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139246</v>
+        <v>119.9738478139235</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846081</v>
+        <v>256.8971042846091</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489701</v>
+        <v>328.6359918489709</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506394</v>
+        <v>203.4874641506386</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>149.1202946442037</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>127.0885569156067</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>148.2690867692147</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>42.51488859665317</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27467,13 +27467,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.1525249552777</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27512,19 +27512,19 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>6.877240807856339</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27555,10 +27555,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,22 +27585,22 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>138.9488612907433</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117124</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>96.75689751539659</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>220.1656809310389</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899766</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863695</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660376</v>
+        <v>143.3066953660377</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
         <v>251.1149531848473</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>377.925926117316</v>
       </c>
     </row>
     <row r="6">
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951733</v>
+        <v>36.27346476951741</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713863</v>
+        <v>4.360182258714019</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27749,19 +27749,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8398728426018</v>
+        <v>67.07900356461968</v>
       </c>
       <c r="V6" t="n">
-        <v>52.27077468399403</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>64.90096112310907</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015377</v>
+        <v>116.5499160015378</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643578</v>
+        <v>1.905236112643721</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4735595059547</v>
       </c>
       <c r="T7" t="n">
-        <v>104.1146510939244</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2484721153922</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,16 +27856,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>345.9779157201204</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>163.8300118571168</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>137.5278003873776</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>245.9019220249697</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28542,7 +28542,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-6.063298011819521e-13</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -28740,7 +28740,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-6.063298011819521e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30283,10 +30283,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350879</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167917</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702306</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990947</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736543</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944813</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0868945774202092</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,22 +31197,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582787</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244974</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779067</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
         <v>173.576239384051</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.7223070791912</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350554</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.73124354871565</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365122</v>
+        <v>2.883746537365117</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579056</v>
+        <v>29.53316922579052</v>
       </c>
       <c r="I5" t="n">
-        <v>111.175638381769</v>
+        <v>111.1756383817688</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756932</v>
+        <v>244.7543826756929</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023589</v>
+        <v>366.8233736023583</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952469</v>
+        <v>455.0768316952461</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791138</v>
+        <v>506.360659179113</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284025</v>
+        <v>514.5541040284018</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974781</v>
+        <v>485.8788493974773</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562766</v>
+        <v>414.6863567562759</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.412183886888</v>
+        <v>311.4121838868875</v>
       </c>
       <c r="R5" t="n">
-        <v>181.146143427762</v>
+        <v>181.1461434277617</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020778</v>
+        <v>65.71337422020768</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731583</v>
+        <v>12.62360046731581</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892097</v>
+        <v>0.2306997229892093</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270406</v>
+        <v>1.542940423270403</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316418</v>
+        <v>14.90155619316416</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189775</v>
+        <v>53.12316808189767</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862624</v>
+        <v>145.7740335862621</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453795</v>
+        <v>249.1510419453791</v>
       </c>
       <c r="L6" t="n">
-        <v>335.014323043866</v>
+        <v>335.0143230438655</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874181</v>
+        <v>390.9459133874175</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189114</v>
+        <v>401.2930884189108</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348671</v>
+        <v>367.1047769348665</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190655</v>
+        <v>294.633948019065</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739557</v>
+        <v>196.9549915739554</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392927</v>
+        <v>95.79765189392911</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399195</v>
+        <v>28.6594416339919</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989046</v>
+        <v>6.219132670989036</v>
       </c>
       <c r="U6" t="n">
-        <v>0.101509238373053</v>
+        <v>0.1015092383730529</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141856</v>
+        <v>1.293549420141854</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907942</v>
+        <v>11.5008302990794</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572055</v>
+        <v>38.90055892572048</v>
       </c>
       <c r="J7" t="n">
-        <v>91.4539440040292</v>
+        <v>91.45394400402905</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401174</v>
+        <v>150.2869235401172</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545447</v>
+        <v>192.3155201545443</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773274</v>
+        <v>202.7697513773271</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022534</v>
+        <v>197.9483399022531</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669598</v>
+        <v>182.8373307669595</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960658</v>
+        <v>156.4489225960656</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266058</v>
+        <v>108.3171246266056</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565106</v>
+        <v>58.16268574565097</v>
       </c>
       <c r="S7" t="n">
-        <v>22.5430385310176</v>
+        <v>22.54303853101757</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060655</v>
+        <v>5.526983886060646</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864675</v>
+        <v>0.07055724109864664</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869144</v>
+        <v>4.833130601869146</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639238</v>
+        <v>49.49729877639241</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285603</v>
+        <v>186.3292675285605</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203916</v>
+        <v>410.2059184203918</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975126</v>
+        <v>614.7923367975129</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544655</v>
+        <v>762.704257454466</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954559</v>
+        <v>848.6554437954563</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180167</v>
+        <v>862.3875761180171</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956803</v>
+        <v>814.3281336956808</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620358</v>
+        <v>695.0102219620361</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825968</v>
+        <v>521.9237322825971</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696629</v>
+        <v>303.599140169663</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900932</v>
+        <v>110.1349635900933</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968219</v>
+        <v>21.1570292096822</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495314</v>
+        <v>0.3866504481495316</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858573</v>
+        <v>2.585952849858574</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837096</v>
+        <v>24.97486041837097</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469209</v>
+        <v>89.03390294469214</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193137</v>
+        <v>244.3158348193138</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>417.5746757598383</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747748</v>
+        <v>561.4806834747751</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821478</v>
+        <v>250.198045131428</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340504</v>
+        <v>672.5632370340509</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924473</v>
+        <v>615.2639659924477</v>
       </c>
       <c r="P12" t="n">
-        <v>383.389793669659</v>
+        <v>493.8035753383448</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047539</v>
+        <v>330.0946129047542</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605175</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627653</v>
+        <v>48.03293999627655</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868433</v>
+        <v>10.42320468868434</v>
       </c>
       <c r="U12" t="n">
         <v>0.1701284769643799</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535156</v>
+        <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092167</v>
+        <v>19.27527754092169</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798454</v>
+        <v>65.19695102798457</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085355</v>
+        <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329026</v>
+        <v>251.8793936329028</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100541</v>
+        <v>322.3189048100543</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770063</v>
+        <v>339.8400926770065</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531028</v>
+        <v>331.759454853103</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806238</v>
+        <v>306.433553380624</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493064</v>
+        <v>262.2068429493066</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194575</v>
+        <v>181.5384268194576</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811709</v>
+        <v>97.48008457811714</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493539</v>
+        <v>37.78190904493541</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377483</v>
+        <v>9.263170188377488</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473723</v>
+        <v>0.1182532364473724</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32324,16 +32324,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>369.1789913099997</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>158.8462560123214</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>704.1404939038099</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>528.6300513467554</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>506.566534435233</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>388.514013929771</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>440.316328560036</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338202</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>338.9915131655318</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217703</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664461</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186564</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441511</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117352</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127285</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763041</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>245.5483596572289</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649636</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34872,10 +34872,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496811</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900694</v>
+        <v>63.70847814900657</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573784</v>
+        <v>146.7335225573778</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252596</v>
+        <v>219.3104167252589</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518411</v>
+        <v>276.0144259518403</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318116</v>
+        <v>285.1410404318108</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757913</v>
+        <v>255.7806379757905</v>
       </c>
       <c r="P5" t="n">
-        <v>183.453361001007</v>
+        <v>183.4533610010063</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243856</v>
+        <v>89.10649401243805</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>145.0274422600045</v>
+        <v>18.93640691959544</v>
       </c>
       <c r="K6" t="n">
-        <v>111.3096029710206</v>
+        <v>342.9474802368758</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639918</v>
+        <v>196.4599432639913</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794653998</v>
+        <v>248.8118794653992</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355781</v>
+        <v>269.9513763355775</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904227</v>
+        <v>224.5085324904221</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047352</v>
+        <v>160.6595406047348</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.5200594133813</v>
+        <v>56.97321748793385</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142345</v>
+        <v>128.0174317142343</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148608</v>
+        <v>219.9055454148605</v>
       </c>
       <c r="M7" t="n">
-        <v>242.353628339168</v>
+        <v>242.3536283391677</v>
       </c>
       <c r="N7" t="n">
-        <v>242.080512281482</v>
+        <v>242.0805122814817</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809995</v>
+        <v>207.4224586809992</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609593</v>
+        <v>153.7274818609591</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491138</v>
+        <v>22.15508137491121</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35264,10 +35264,10 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>546.4575832202792</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750473</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308545</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937053</v>
+        <v>229.1600138937055</v>
       </c>
       <c r="K11" t="n">
-        <v>394.702485752532</v>
+        <v>394.7024857525324</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844783</v>
+        <v>526.9378424844788</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681832</v>
+        <v>618.3092105681836</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214258</v>
+        <v>632.9745125214263</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739936</v>
+        <v>584.229922273994</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067662</v>
+        <v>463.7772262067666</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081473</v>
+        <v>299.6180424081476</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553074</v>
+        <v>88.01360235553091</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.478208152647</v>
+        <v>117.4782081526471</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>279.7332367854793</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949006</v>
+        <v>422.9263036949009</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601294</v>
+        <v>108.0640112094097</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507171</v>
+        <v>541.2215249507176</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480029</v>
+        <v>472.6677215480032</v>
       </c>
       <c r="P12" t="n">
-        <v>249.4153862553287</v>
+        <v>359.8291679240145</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187324</v>
+        <v>190.1128388187327</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655353</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186276</v>
+        <v>59.91672319186284</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070198</v>
+        <v>229.6099018070199</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703703</v>
+        <v>349.9089300703704</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388469</v>
+        <v>379.4239696388471</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323314</v>
+        <v>375.8916272323316</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946635</v>
+        <v>331.0186812946637</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141999</v>
+        <v>259.4854022142001</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776311</v>
+        <v>95.37638356776323</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35972,16 +35972,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899077</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060454</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>18.86448192629984</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>397.2883392634221</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>364.4325005132147</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>245.9177694853266</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>302.474889585677</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394598</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>199.0097390795103</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
